--- a/biology/Zoologie/Arcas_imperialis/Arcas_imperialis.xlsx
+++ b/biology/Zoologie/Arcas_imperialis/Arcas_imperialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arcas imperialis est une espèce d'insectes lépidoptères - ou papillons de la famille des Lycaenidae, sous-famille des Theclinae et du genre Arcas.
 </t>
@@ -511,51 +523,53 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arcas imperialis a été décrit par Pieter Cramer en 1775, sous le nom initial de Papilio imperialis[1].
-Synonymie
-Papilio actaeon Fabricius, 1775;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcas imperialis a été décrit par Pieter Cramer en 1775, sous le nom initial de Papilio imperialis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio actaeon Fabricius, 1775;
 Papilio venus Fabricius, 1781;
 Theritas oakesii Butler, 1884;
 Arcas magnifica Austin &amp; Johnson, 1995;
 Thecla imperialis ; Hewitson, 1865;
-Eucharia imperialis ; Boisduval, 1870[1].
-Noms vernaculaires
-Arcas imperialis se nomme Impérial Arcas en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arcas_imperialis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arcas_imperialis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arcas imperialis d'une envergure d'environ 32 mm, possède à chaque aile postérieure deux queues longues, fines et recourbées[3]. Le dessus est bleu-vert clair avec l'apex des antérieures noir.
-Le revers est vert clair marbré de noir aux ailes postérieures qui présentent une plage rose chez la femelle.
-</t>
+Eucharia imperialis ; Boisduval, 1870.</t>
         </is>
       </c>
     </row>
@@ -580,10 +594,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcas imperialis se nomme Impérial Arcas en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,15 +631,113 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arcas imperialis d'une envergure d'environ 32 mm, possède à chaque aile postérieure deux queues longues, fines et recourbées. Le dessus est bleu-vert clair avec l'apex des antérieures noir.
+Le revers est vert clair marbré de noir aux ailes postérieures qui présentent une plage rose chez la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent au Mexique, à Panama, en Colombie, en Bolivie, au Pérou, en Équateur, au Brésil au Surinam, en Guyana et en Guyane[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Mexique, à Panama, en Colombie, en Bolivie, au Pérou, en Équateur, au Brésil au Surinam, en Guyana et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arcas_imperialis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Arcas imperialis, sur Wikimedia CommonsArcas imperialis, sur Wikispecies
 </t>
